--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -8930,7 +8930,7 @@
         <v>52</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>53</v>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="582">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,81 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.id</t>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -384,7 +458,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.extension</t>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -393,175 +473,43 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of an event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -1482,6 +1430,9 @@
   </si>
   <si>
     <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
@@ -2020,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2030,7 +1981,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3213,11 +3164,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -3226,10 +3179,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -3238,13 +3191,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3295,19 +3248,19 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -3316,7 +3269,7 @@
         <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -3327,24 +3280,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>44</v>
@@ -3353,13 +3306,17 @@
         <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3395,19 +3352,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3428,7 +3385,7 @@
         <v>44</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>44</v>
@@ -3439,7 +3396,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3447,31 +3404,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3479,7 +3436,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>44</v>
@@ -3509,59 +3466,59 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>52</v>
@@ -3573,18 +3530,20 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3609,10 +3568,10 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>44</v>
@@ -3621,23 +3580,25 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
@@ -3646,34 +3607,32 @@
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
@@ -3688,13 +3647,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3721,10 +3680,10 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>44</v>
@@ -3745,7 +3704,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3757,7 +3716,7 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>44</v>
@@ -3766,7 +3725,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3775,15 +3734,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3793,7 +3750,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>44</v>
@@ -3802,15 +3759,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3847,19 +3806,19 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3868,7 +3827,7 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
@@ -3880,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3891,18 +3850,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3911,22 +3870,22 @@
         <v>53</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3951,13 +3910,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3975,28 +3934,28 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -4007,7 +3966,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4018,10 +3977,10 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -4030,18 +3989,20 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -4065,35 +4026,37 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -4102,34 +4065,32 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>52</v>
@@ -4144,30 +4105,32 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -4203,13 +4166,13 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -4218,24 +4181,24 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4243,7 +4206,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -4255,18 +4218,20 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4279,7 +4244,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -4315,7 +4280,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4327,16 +4292,16 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -4347,18 +4312,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -4367,20 +4332,18 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4417,40 +4380,40 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -4461,7 +4424,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4478,26 +4441,24 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4521,13 +4482,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4545,7 +4506,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4563,10 +4524,10 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4577,7 +4538,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4588,7 +4549,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4600,20 +4561,18 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4637,13 +4596,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4661,13 +4620,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4676,13 +4635,13 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4693,7 +4652,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4701,10 +4660,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4719,29 +4678,27 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>44</v>
@@ -4777,13 +4734,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -4792,13 +4749,13 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4809,18 +4766,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4832,17 +4789,15 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4855,7 +4810,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4891,13 +4846,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4906,13 +4861,13 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4923,18 +4878,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4946,13 +4901,13 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5003,13 +4958,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -5018,13 +4973,13 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -5033,13 +4988,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5049,7 +5004,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -5058,18 +5013,20 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -5117,7 +5074,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -5132,13 +5089,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -5147,9 +5104,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5157,31 +5114,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5207,13 +5164,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -5231,13 +5188,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5246,24 +5203,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5271,31 +5228,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5321,13 +5278,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5345,13 +5302,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5360,38 +5317,38 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5400,16 +5357,20 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5433,13 +5394,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5457,7 +5416,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5472,16 +5431,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5489,18 +5448,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5509,16 +5468,16 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5569,28 +5528,28 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
@@ -5599,45 +5558,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5673,40 +5630,40 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5715,9 +5672,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5725,33 +5682,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5775,13 +5734,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5799,13 +5758,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5814,24 +5773,24 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5839,7 +5798,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5848,23 +5807,21 @@
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5889,13 +5846,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5913,10 +5870,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5925,63 +5882,61 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -6005,29 +5960,31 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -6039,19 +5996,19 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -6059,7 +6016,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6079,25 +6036,29 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>44</v>
@@ -6139,7 +6100,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -6151,16 +6112,16 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -6171,18 +6132,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6191,19 +6152,19 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6241,40 +6202,40 @@
         <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -6285,7 +6246,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6296,7 +6257,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6308,26 +6269,24 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -6369,13 +6328,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -6387,10 +6346,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6401,7 +6360,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6421,19 +6380,21 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6481,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6493,16 +6454,16 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6513,18 +6474,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6533,21 +6494,23 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6583,40 +6546,40 @@
         <v>44</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6627,7 +6590,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6650,26 +6613,26 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>44</v>
@@ -6711,7 +6674,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6729,10 +6692,10 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6743,7 +6706,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6766,22 +6729,22 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6801,13 +6764,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6825,7 +6788,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6840,16 +6803,16 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6857,7 +6820,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6874,30 +6837,34 @@
         <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q43" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>44</v>
@@ -6939,7 +6906,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6954,13 +6921,13 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6969,23 +6936,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6994,18 +6961,18 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -7029,13 +6996,11 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -7053,7 +7018,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -7068,24 +7033,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7105,23 +7070,19 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -7169,7 +7130,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7181,16 +7142,16 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -7201,18 +7162,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -7221,23 +7182,21 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -7273,40 +7232,40 @@
         <v>44</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7317,7 +7276,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7328,7 +7287,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7340,22 +7299,24 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P47" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7375,13 +7336,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7399,13 +7360,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7414,16 +7375,16 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7431,7 +7392,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7448,32 +7409,26 @@
         <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7517,7 +7472,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>138</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7529,59 +7484,59 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>361</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>142</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>119</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7607,61 +7562,63 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7681,19 +7638,23 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7741,7 +7702,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7753,16 +7714,16 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7773,18 +7734,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7793,19 +7754,19 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7843,40 +7804,40 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7887,7 +7848,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7898,7 +7859,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7910,26 +7871,24 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7971,13 +7930,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7989,10 +7948,10 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -8003,7 +7962,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8023,19 +7982,21 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -8083,7 +8044,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -8095,16 +8056,16 @@
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -8115,18 +8076,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -8135,21 +8096,23 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -8185,40 +8148,40 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -8229,7 +8192,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8252,19 +8215,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8313,7 +8276,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8331,10 +8294,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8343,23 +8306,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>44</v>
@@ -8368,16 +8331,16 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8403,13 +8366,11 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8427,16 +8388,16 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>64</v>
@@ -8445,21 +8406,21 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8473,7 +8434,7 @@
         <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>44</v>
@@ -8482,24 +8443,24 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>44</v>
@@ -8541,7 +8502,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8559,10 +8520,10 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8593,21 +8554,19 @@
         <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>319</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8655,7 +8614,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8667,16 +8626,16 @@
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8691,14 +8650,14 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
@@ -8707,23 +8666,21 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8759,40 +8716,40 @@
         <v>44</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>331</v>
+        <v>144</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8811,7 +8768,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>52</v>
@@ -8826,19 +8783,19 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>54</v>
+        <v>383</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -8887,7 +8844,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8905,10 +8862,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8917,47 +8874,49 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8977,11 +8936,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8999,16 +8960,16 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>64</v>
@@ -9017,21 +8978,21 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9039,13 +9000,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
@@ -9054,24 +9015,24 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>392</v>
+        <v>54</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>44</v>
@@ -9113,7 +9074,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -9131,10 +9092,10 @@
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -9145,7 +9106,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9153,7 +9114,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>52</v>
@@ -9165,25 +9126,27 @@
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>113</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>114</v>
+        <v>411</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>44</v>
@@ -9225,7 +9188,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9234,19 +9197,19 @@
         <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>44</v>
+        <v>415</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9257,18 +9220,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -9277,27 +9240,29 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>161</v>
+        <v>418</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>44</v>
@@ -9327,40 +9292,40 @@
         <v>44</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>119</v>
+        <v>422</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>116</v>
+        <v>423</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9369,9 +9334,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9385,7 +9350,7 @@
         <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>44</v>
@@ -9394,20 +9359,16 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9455,10 +9416,10 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>52</v>
@@ -9470,64 +9431,60 @@
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P66" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9547,13 +9504,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>413</v>
+        <v>44</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>414</v>
+        <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9571,7 +9528,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9586,38 +9543,38 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>44</v>
+        <v>438</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>44</v>
+        <v>442</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9626,24 +9583,22 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>54</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>44</v>
@@ -9685,7 +9640,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9700,24 +9655,24 @@
         <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>44</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9725,13 +9680,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>44</v>
@@ -9740,24 +9695,22 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>66</v>
+        <v>454</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>44</v>
@@ -9775,13 +9728,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9799,7 +9752,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9808,7 +9761,7 @@
         <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>432</v>
+        <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>64</v>
@@ -9817,35 +9770,35 @@
         <v>44</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>44</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>44</v>
@@ -9854,26 +9807,22 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>72</v>
+        <v>464</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>44</v>
@@ -9915,7 +9864,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9930,28 +9879,28 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>44</v>
+        <v>467</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>44</v>
+        <v>470</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>44</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9970,15 +9919,17 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -10027,10 +9978,10 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>52</v>
@@ -10042,28 +9993,28 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>449</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10073,7 +10024,7 @@
         <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
@@ -10082,15 +10033,17 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>452</v>
+        <v>156</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -10115,13 +10068,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>44</v>
+        <v>488</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>44</v>
+        <v>489</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -10139,7 +10092,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10154,35 +10107,35 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>459</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>53</v>
@@ -10194,15 +10147,17 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -10251,13 +10206,13 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
@@ -10266,24 +10221,24 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>469</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10294,10 +10249,10 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>44</v>
@@ -10306,13 +10261,13 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>471</v>
+        <v>156</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10339,13 +10294,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>129</v>
+        <v>457</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10363,13 +10318,13 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
@@ -10384,32 +10339,32 @@
         <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>477</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
@@ -10418,13 +10373,13 @@
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10475,13 +10430,13 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>44</v>
@@ -10490,35 +10445,35 @@
         <v>64</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>484</v>
+        <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>487</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>489</v>
+        <v>44</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>53</v>
@@ -10530,16 +10485,16 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>490</v>
+        <v>156</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10565,13 +10520,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>44</v>
+        <v>517</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>44</v>
+        <v>518</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10589,13 +10544,13 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10604,38 +10559,38 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>498</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>44</v>
@@ -10644,16 +10599,16 @@
         <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>135</v>
+        <v>524</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10679,13 +10634,13 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>504</v>
+        <v>44</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>505</v>
+        <v>44</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -10703,13 +10658,13 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>44</v>
@@ -10718,28 +10673,28 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>511</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10749,26 +10704,24 @@
         <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>44</v>
@@ -10817,7 +10770,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10832,28 +10785,28 @@
         <v>64</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>509</v>
+        <v>44</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>44</v>
+        <v>539</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10863,24 +10816,26 @@
         <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>44</v>
@@ -10905,13 +10860,13 @@
         <v>44</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>522</v>
+        <v>44</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>523</v>
+        <v>44</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>44</v>
@@ -10929,7 +10884,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10944,16 +10899,16 @@
         <v>64</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>44</v>
+        <v>545</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>509</v>
+        <v>44</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10961,7 +10916,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10984,15 +10939,17 @@
         <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -11041,7 +10998,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -11059,13 +11016,13 @@
         <v>44</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>44</v>
+        <v>552</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>509</v>
+        <v>44</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -11073,11 +11030,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>44</v>
+        <v>555</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11096,18 +11053,20 @@
         <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
       </c>
@@ -11131,13 +11090,13 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>129</v>
+        <v>457</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11155,7 +11114,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11170,24 +11129,24 @@
         <v>64</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>535</v>
+        <v>44</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>538</v>
+        <v>44</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>44</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11201,26 +11160,24 @@
         <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -11269,7 +11226,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11284,24 +11241,24 @@
         <v>64</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>545</v>
+        <v>373</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>538</v>
+        <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>44</v>
+        <v>570</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11312,25 +11269,25 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>548</v>
+        <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11381,13 +11338,13 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>44</v>
@@ -11396,13 +11353,13 @@
         <v>64</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>551</v>
+        <v>44</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>552</v>
+        <v>373</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>44</v>
@@ -11411,13 +11368,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>555</v>
+        <v>44</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11427,7 +11384,7 @@
         <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>44</v>
@@ -11436,16 +11393,16 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11495,7 +11452,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11510,591 +11467,23 @@
         <v>64</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>561</v>
+        <v>95</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN88" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12104,7 +11493,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -2077,7 +2077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2165,77 +2165,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -1500,16 +1500,19 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1523,6 +1526,9 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2254,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2264,7 +2270,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -9841,7 +9847,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>478</v>
       </c>
@@ -9851,7 +9857,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
@@ -9866,13 +9872,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9911,16 +9917,14 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>478</v>
@@ -9938,32 +9942,34 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -9978,13 +9984,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>489</v>
+        <v>220</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10011,13 +10017,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10035,7 +10041,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10050,28 +10056,28 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10090,13 +10096,13 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10123,13 +10129,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10147,7 +10153,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10162,32 +10168,32 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10202,17 +10208,15 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10261,7 +10265,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10276,32 +10280,32 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
@@ -10316,16 +10320,16 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>191</v>
+        <v>511</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10351,13 +10355,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10375,7 +10379,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10390,35 +10394,35 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -10430,16 +10434,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>531</v>
+        <v>191</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10465,13 +10469,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10489,13 +10493,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10504,28 +10508,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10535,7 +10539,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10544,15 +10548,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>533</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10577,13 +10583,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10601,7 +10607,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10616,16 +10622,16 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10633,7 +10639,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10656,13 +10662,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>545</v>
+        <v>191</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10689,13 +10695,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10713,7 +10719,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10734,18 +10740,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10759,7 +10765,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10768,17 +10774,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>191</v>
+        <v>547</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10803,13 +10807,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10827,7 +10831,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10842,24 +10846,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10873,7 +10877,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10882,16 +10886,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>559</v>
+        <v>191</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10917,13 +10921,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10941,7 +10945,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10956,16 +10960,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10973,7 +10977,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10993,18 +10997,20 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11053,7 +11059,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11068,28 +11074,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11099,7 +11105,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11108,17 +11114,15 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11167,7 +11171,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11182,13 +11186,13 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11197,13 +11201,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11213,25 +11217,25 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11281,7 +11285,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11296,13 +11300,13 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11311,13 +11315,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11327,7 +11331,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11336,20 +11340,18 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>191</v>
+        <v>585</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11373,13 +11375,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11397,7 +11399,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11415,25 +11417,25 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11449,19 +11451,23 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>600</v>
+        <v>191</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11485,13 +11491,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11509,7 +11515,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11524,24 +11530,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>408</v>
+        <v>589</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11552,7 +11558,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>88</v>
@@ -11561,16 +11567,16 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>602</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11621,13 +11627,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11636,24 +11642,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11664,29 +11670,27 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>611</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11735,13 +11739,13 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -11750,23 +11754,137 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="M84" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AL84" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11776,7 +11894,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -1500,19 +1500,16 @@
 </t>
   </si>
   <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1526,9 +1523,6 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2260,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2270,7 +2264,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -9847,7 +9841,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>478</v>
       </c>
@@ -9857,7 +9851,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
@@ -9872,13 +9866,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>220</v>
+        <v>480</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9917,14 +9911,16 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>478</v>
@@ -9942,34 +9938,32 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -9984,13 +9978,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>220</v>
+        <v>489</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10017,13 +10011,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10041,7 +10035,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10056,28 +10050,28 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10096,13 +10090,13 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10129,13 +10123,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10153,7 +10147,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10168,32 +10162,32 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10208,15 +10202,17 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10265,7 +10261,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10280,32 +10276,32 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
@@ -10320,16 +10316,16 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>511</v>
+        <v>191</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10355,13 +10351,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10379,7 +10375,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10394,35 +10390,35 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -10434,16 +10430,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>191</v>
+        <v>531</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10469,13 +10465,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10493,13 +10489,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10508,28 +10504,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10539,7 +10535,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10548,17 +10544,15 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>533</v>
+        <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10583,13 +10577,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10607,7 +10601,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10622,16 +10616,16 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10639,7 +10633,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10662,13 +10656,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>191</v>
+        <v>545</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10695,31 +10689,31 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10740,18 +10734,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10765,7 +10759,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10774,15 +10768,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>547</v>
+        <v>191</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10807,13 +10803,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10831,7 +10827,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10846,24 +10842,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10877,7 +10873,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10886,16 +10882,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>191</v>
+        <v>559</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10921,13 +10917,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10945,7 +10941,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10960,16 +10956,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10977,7 +10973,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10997,20 +10993,18 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11059,7 +11053,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11074,28 +11068,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11105,7 +11099,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11114,15 +11108,17 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11171,7 +11167,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11186,13 +11182,13 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11201,13 +11197,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11217,25 +11213,25 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11285,7 +11281,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11300,13 +11296,13 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11315,13 +11311,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11331,7 +11327,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11340,18 +11336,20 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>585</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11375,13 +11373,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>595</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11399,7 +11397,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11417,25 +11415,25 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11451,23 +11449,19 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>191</v>
+        <v>600</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11491,13 +11485,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11515,7 +11509,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11530,24 +11524,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>589</v>
+        <v>408</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11558,7 +11552,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>88</v>
@@ -11567,16 +11561,16 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>602</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11627,13 +11621,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11642,24 +11636,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11670,27 +11664,29 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>611</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11739,13 +11735,13 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -11754,137 +11750,23 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>408</v>
+        <v>130</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN84">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11894,7 +11776,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$90</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -475,6 +475,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -485,6 +565,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -552,18 +661,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -573,12 +670,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -612,10 +703,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -626,9 +713,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -870,7 +954,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1538,9 +1622,6 @@
     <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
@@ -1723,7 +1804,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1757,7 +1838,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2254,7 +2335,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2264,7 +2345,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3231,7 +3312,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3447,13 +3528,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3462,10 +3541,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3474,13 +3553,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3531,19 +3610,19 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3552,7 +3631,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3563,24 +3642,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
@@ -3589,17 +3668,13 @@
         <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3635,19 +3710,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3668,7 +3743,7 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3679,7 +3754,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3687,31 +3762,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3719,7 +3794,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3749,59 +3824,59 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -3813,20 +3888,18 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3851,10 +3924,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3863,25 +3936,23 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -3890,32 +3961,34 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
@@ -3930,13 +4003,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3963,13 +4036,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3987,43 +4058,45 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4033,7 +4106,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -4042,17 +4115,15 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4089,19 +4160,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4110,7 +4181,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4122,7 +4193,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4131,11 +4202,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4144,32 +4217,28 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4193,13 +4262,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4217,28 +4286,28 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4247,11 +4316,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4263,29 +4334,27 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4309,13 +4378,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4333,28 +4402,28 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4365,55 +4434,55 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4449,28 +4518,28 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4481,7 +4550,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4489,13 +4558,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4504,16 +4573,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4527,7 +4596,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4551,25 +4620,23 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4578,26 +4645,28 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4618,15 +4687,17 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4675,13 +4746,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4690,24 +4761,24 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4727,20 +4798,18 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4789,7 +4858,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4801,16 +4870,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4821,11 +4890,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4841,19 +4910,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4891,19 +4960,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4915,16 +4984,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4935,7 +5004,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4946,30 +5015,32 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4993,13 +5064,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5017,13 +5088,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -5032,13 +5103,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5049,18 +5120,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -5072,16 +5143,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5105,13 +5180,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5129,13 +5204,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5144,13 +5219,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5161,18 +5236,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5184,28 +5259,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5241,13 +5320,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5256,13 +5335,13 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5271,23 +5350,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5296,20 +5375,18 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5321,7 +5398,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5357,7 +5434,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5372,13 +5449,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5387,9 +5464,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5397,32 +5474,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5447,13 +5522,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5471,10 +5546,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5486,24 +5561,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5511,7 +5586,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5520,22 +5595,22 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5561,13 +5636,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5585,10 +5660,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5600,24 +5675,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5625,13 +5700,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5640,20 +5715,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5677,11 +5750,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5699,7 +5774,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5714,16 +5789,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5731,7 +5806,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5742,7 +5817,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5751,18 +5826,20 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5811,28 +5888,28 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5843,11 +5920,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5863,20 +5940,18 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5913,19 +5988,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5937,16 +6012,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5957,11 +6032,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5980,20 +6055,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6041,7 +6112,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6056,13 +6127,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6071,13 +6142,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6087,25 +6158,29 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6153,7 +6228,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6165,16 +6240,16 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6183,41 +6258,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6243,63 +6318,63 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6307,7 +6382,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6316,32 +6391,30 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6359,13 +6432,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6383,10 +6456,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6398,24 +6471,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6423,13 +6496,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6438,18 +6511,20 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6473,13 +6548,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6497,13 +6570,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6515,13 +6588,13 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6529,7 +6602,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6549,27 +6622,25 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6611,7 +6682,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6623,16 +6694,16 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6643,18 +6714,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6663,21 +6734,21 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6713,40 +6784,40 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6757,7 +6828,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6768,7 +6839,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6780,19 +6851,19 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6841,13 +6912,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6859,10 +6930,10 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6873,7 +6944,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6893,23 +6964,19 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6957,7 +7024,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6969,16 +7036,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6989,18 +7056,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -7009,25 +7076,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7047,55 +7114,55 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7103,7 +7170,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7120,35 +7187,33 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7189,7 +7254,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7204,13 +7269,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7219,23 +7284,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7244,16 +7309,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7279,11 +7344,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7301,7 +7368,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7316,24 +7383,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7353,25 +7420,27 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7413,7 +7482,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7425,16 +7494,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7445,18 +7514,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7465,21 +7534,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7515,40 +7584,40 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>174</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7559,7 +7628,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7570,7 +7639,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7582,19 +7651,19 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7643,13 +7712,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7661,10 +7730,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7675,7 +7744,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7695,19 +7764,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7755,7 +7828,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7767,16 +7840,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7787,18 +7860,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7807,25 +7880,25 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7845,55 +7918,55 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>174</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7901,7 +7974,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7918,30 +7991,32 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7985,7 +8060,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8000,13 +8075,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8015,23 +8090,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8040,16 +8115,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8075,13 +8150,11 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8099,7 +8172,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8114,24 +8187,24 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8151,27 +8224,25 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8213,7 +8284,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8225,16 +8296,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8245,18 +8316,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8265,21 +8336,21 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8315,40 +8386,40 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8359,7 +8430,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8370,7 +8441,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8382,19 +8453,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8443,13 +8514,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8461,10 +8532,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8475,7 +8546,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8495,23 +8566,19 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8559,7 +8626,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8571,16 +8638,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8589,41 +8656,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>189</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8649,29 +8716,31 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8680,30 +8749,30 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8717,7 +8786,7 @@
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8726,17 +8795,19 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>410</v>
+        <v>101</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8785,7 +8856,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8803,10 +8874,10 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8817,7 +8888,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8837,18 +8908,20 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8897,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8909,16 +8982,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8929,18 +9002,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8949,27 +9022,27 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>79</v>
@@ -8999,40 +9072,40 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9043,7 +9116,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9051,7 +9124,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
@@ -9066,19 +9139,17 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>418</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9127,7 +9198,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9145,10 +9216,10 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9170,36 +9241,36 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P61" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9219,13 +9290,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9243,7 +9314,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9261,10 +9332,10 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9275,7 +9346,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9283,7 +9354,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
@@ -9301,21 +9372,23 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>79</v>
@@ -9357,7 +9430,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9375,10 +9448,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9387,23 +9460,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9412,24 +9485,24 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
@@ -9447,13 +9520,11 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9471,16 +9542,16 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
@@ -9489,21 +9560,21 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9511,13 +9582,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9526,26 +9597,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>437</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9587,7 +9656,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9605,21 +9674,21 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9627,28 +9696,28 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>460</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>461</v>
+        <v>148</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>462</v>
+        <v>149</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9699,10 +9768,10 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>459</v>
+        <v>150</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9711,38 +9780,38 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>465</v>
+        <v>151</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>469</v>
+        <v>186</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9751,18 +9820,20 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>470</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>471</v>
+        <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9799,65 +9870,65 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>468</v>
+        <v>154</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>475</v>
+        <v>151</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9866,16 +9937,20 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9923,7 +9998,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9938,24 +10013,24 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9966,32 +10041,36 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>489</v>
+        <v>107</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="Q68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10011,13 +10090,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>492</v>
+        <v>214</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10035,7 +10114,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10053,35 +10132,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10090,22 +10169,24 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>499</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>79</v>
@@ -10147,7 +10228,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10162,28 +10243,28 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10193,7 +10274,7 @@
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10202,24 +10283,24 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>509</v>
+        <v>101</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>79</v>
@@ -10261,7 +10342,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10270,44 +10351,44 @@
         <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10316,24 +10397,26 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>79</v>
@@ -10351,13 +10434,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10375,7 +10458,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10390,16 +10473,16 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10407,18 +10490,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -10430,17 +10513,15 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10489,13 +10570,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10504,35 +10585,35 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10544,13 +10625,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10577,13 +10658,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10601,13 +10682,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10616,38 +10697,38 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>543</v>
+        <v>502</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10656,13 +10737,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10713,13 +10794,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10728,24 +10809,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10756,7 +10837,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10768,17 +10849,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>191</v>
+        <v>516</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10803,13 +10882,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>492</v>
+        <v>165</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10827,13 +10906,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10842,38 +10921,38 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10882,17 +10961,15 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10941,13 +11018,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10956,55 +11033,57 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11053,13 +11132,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11068,35 +11147,35 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -11105,19 +11184,19 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>575</v>
+        <v>162</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11143,13 +11222,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11167,13 +11246,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11182,28 +11261,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11213,7 +11292,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11222,16 +11301,16 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11281,7 +11360,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11296,28 +11375,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11327,7 +11406,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11336,20 +11415,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11373,13 +11448,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>492</v>
+        <v>165</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11397,7 +11472,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11415,21 +11490,21 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11443,22 +11518,22 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11509,7 +11584,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11524,24 +11599,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11552,7 +11627,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>88</v>
@@ -11564,15 +11639,17 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11597,13 +11674,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11621,13 +11698,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11636,16 +11713,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>408</v>
+        <v>581</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11653,7 +11730,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11673,19 +11750,19 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11735,7 +11812,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11750,23 +11827,817 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AL90" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN90">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11776,7 +12647,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI89">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="664">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -654,6 +654,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2389,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5054,45 +5061,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5140,7 +5145,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5149,7 +5154,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5161,7 +5166,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5172,11 +5177,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5186,27 +5191,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5242,17 +5249,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5264,31 +5273,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5297,10 +5304,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5309,16 +5316,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5356,19 +5363,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5383,26 +5388,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5420,18 +5427,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5480,50 +5489,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5535,17 +5544,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5582,31 +5589,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5626,43 +5633,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5686,52 +5691,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5742,7 +5747,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5759,25 +5764,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5802,13 +5807,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5826,7 +5831,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5844,10 +5849,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5858,7 +5863,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5866,7 +5871,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5881,32 +5886,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5918,13 +5923,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5942,7 +5947,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5960,10 +5965,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5974,7 +5979,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5997,30 +6002,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -6056,7 +6063,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6074,10 +6081,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6095,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6096,7 +6103,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6111,15 +6118,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6132,7 +6141,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6168,7 +6177,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6186,10 +6195,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6200,7 +6209,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6223,17 +6232,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6282,7 +6289,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6300,10 +6307,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6314,7 +6321,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6325,7 +6332,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6337,16 +6344,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6396,13 +6403,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6411,13 +6418,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6428,7 +6435,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6451,16 +6458,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6510,7 +6517,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6525,13 +6532,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6540,13 +6547,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6556,7 +6563,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6565,15 +6572,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6622,7 +6631,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6637,13 +6646,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6652,13 +6661,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6668,7 +6677,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6677,13 +6686,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6734,7 +6743,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6749,13 +6758,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6764,23 +6773,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6789,20 +6798,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6850,13 +6855,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6865,13 +6870,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6882,15 +6887,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6899,24 +6904,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6940,13 +6947,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6964,10 +6971,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6979,24 +6986,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7022,13 +7029,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7054,13 +7061,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7078,7 +7085,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -7093,24 +7100,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7127,26 +7134,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7170,11 +7175,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7192,13 +7199,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7207,24 +7214,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7232,31 +7239,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7280,13 +7291,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7304,31 +7313,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7336,18 +7345,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7359,17 +7368,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7406,31 +7413,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7450,11 +7457,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7470,23 +7477,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7522,19 +7527,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7546,16 +7551,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7566,7 +7571,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7577,7 +7582,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7586,19 +7591,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7646,28 +7655,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7678,18 +7687,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7701,17 +7710,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7748,31 +7755,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7792,18 +7799,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7812,29 +7819,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7864,40 +7869,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7908,7 +7913,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7931,24 +7936,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7990,7 +7997,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8008,10 +8015,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8022,7 +8029,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8045,24 +8052,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8104,7 +8111,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8122,10 +8129,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8136,7 +8143,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8159,24 +8166,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8218,7 +8225,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8236,10 +8243,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8250,7 +8257,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8273,19 +8280,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8334,7 +8339,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8352,10 +8357,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8366,7 +8371,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8389,19 +8394,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8450,7 +8455,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8468,10 +8473,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8482,7 +8487,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8505,22 +8510,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8540,13 +8547,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8564,7 +8571,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8579,16 +8586,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8596,7 +8603,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8613,31 +8620,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8658,13 +8661,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8682,7 +8685,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8697,62 +8700,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8772,11 +8779,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8794,7 +8803,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8809,55 +8818,57 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8882,13 +8893,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8906,7 +8915,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>151</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8918,38 +8927,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8961,17 +8970,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9008,31 +9015,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9052,11 +9059,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9072,23 +9079,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9124,19 +9129,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9148,16 +9153,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9168,7 +9173,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9179,7 +9184,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9188,19 +9193,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9248,28 +9257,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9280,18 +9289,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9303,17 +9312,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9350,31 +9357,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9394,18 +9401,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9414,23 +9421,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9466,40 +9471,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9510,7 +9515,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9533,18 +9538,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9592,7 +9599,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9610,10 +9617,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9624,7 +9631,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9647,24 +9654,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9706,7 +9713,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9724,10 +9731,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9761,24 +9768,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9820,7 +9827,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9838,10 +9845,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9852,7 +9859,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9875,19 +9882,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9936,7 +9941,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9954,10 +9959,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9968,7 +9973,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9991,19 +9996,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10052,7 +10057,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10070,10 +10075,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10082,23 +10087,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10107,18 +10112,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10142,11 +10149,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10164,16 +10173,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10182,32 +10191,32 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -10219,18 +10228,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>456</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10254,13 +10263,11 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10278,16 +10285,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10296,21 +10303,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10324,25 +10331,27 @@
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>458</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10390,7 +10399,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>151</v>
+        <v>457</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10402,16 +10411,16 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>152</v>
+        <v>462</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10422,18 +10431,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10445,17 +10454,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10492,31 +10499,31 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10536,18 +10543,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10556,23 +10563,21 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>464</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>465</v>
+        <v>228</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>466</v>
+        <v>229</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10608,40 +10613,40 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>469</v>
+        <v>155</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>471</v>
+        <v>152</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10652,7 +10657,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10660,39 +10665,39 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>107</v>
+        <v>466</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P73" t="s" s="2">
-        <v>476</v>
-      </c>
+      <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10712,13 +10717,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10736,7 +10741,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10754,10 +10759,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10768,7 +10773,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10776,39 +10781,41 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q74" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>79</v>
@@ -10826,13 +10833,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10850,7 +10857,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10868,10 +10875,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10882,7 +10889,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10905,24 +10912,24 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>79</v>
@@ -10964,7 +10971,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10973,7 +10980,7 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>99</v>
@@ -10982,10 +10989,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10996,7 +11003,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11019,26 +11026,24 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>79</v>
@@ -11080,7 +11085,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11089,7 +11094,7 @@
         <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -11098,10 +11103,10 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11110,9 +11115,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11126,7 +11131,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11135,22 +11140,26 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>506</v>
+        <v>107</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>79</v>
@@ -11195,7 +11204,7 @@
         <v>505</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>87</v>
@@ -11207,38 +11216,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11247,13 +11256,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11304,10 +11313,10 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>87</v>
@@ -11319,28 +11328,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11350,7 +11359,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11359,13 +11368,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11416,7 +11425,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11431,28 +11440,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11471,13 +11480,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11504,13 +11513,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11528,7 +11537,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11543,32 +11552,32 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>87</v>
@@ -11583,13 +11592,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11616,13 +11625,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11640,7 +11649,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11655,28 +11664,28 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11695,17 +11704,15 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11754,7 +11761,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11769,35 +11776,35 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>88</v>
@@ -11809,16 +11816,16 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>163</v>
+        <v>556</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11844,13 +11851,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11868,7 +11875,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11883,28 +11890,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11923,16 +11930,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>576</v>
+        <v>163</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11958,13 +11965,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11982,13 +11989,13 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
@@ -11997,38 +12004,38 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12037,15 +12044,17 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>578</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12070,13 +12079,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12094,7 +12103,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12109,16 +12118,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12126,7 +12135,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12149,13 +12158,13 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>590</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12182,13 +12191,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12206,7 +12215,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12227,18 +12236,18 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12246,13 +12255,13 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12261,17 +12270,15 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>163</v>
+        <v>592</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12296,13 +12303,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12320,7 +12327,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12335,24 +12342,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12360,13 +12367,13 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12375,16 +12382,16 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>604</v>
+        <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12410,13 +12417,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12434,7 +12441,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12449,16 +12456,16 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12466,7 +12473,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12486,18 +12493,20 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12546,7 +12555,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12561,28 +12570,28 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>619</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12592,7 +12601,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12601,17 +12610,15 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12660,7 +12667,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12675,13 +12682,13 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12690,13 +12697,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12706,25 +12713,25 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12774,7 +12781,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12789,13 +12796,13 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>79</v>
+        <v>626</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12804,13 +12811,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12820,7 +12827,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12829,20 +12836,18 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>163</v>
+        <v>630</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12866,13 +12871,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>641</v>
+        <v>79</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12890,7 +12895,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12908,25 +12913,25 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12942,19 +12947,23 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>645</v>
+        <v>163</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>641</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -12978,13 +12987,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13002,7 +13011,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13017,24 +13026,24 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>454</v>
+        <v>634</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13045,7 +13054,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -13054,16 +13063,16 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>647</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13114,13 +13123,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13129,24 +13138,24 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>79</v>
+        <v>650</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13157,29 +13166,27 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>656</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13228,13 +13235,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13243,23 +13250,137 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="AK95" t="s" s="2">
+      <c r="M96" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13269,7 +13390,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="662">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -654,13 +654,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
-</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2396,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5061,43 +5054,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5145,7 +5140,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5154,7 +5149,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5166,7 +5161,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5177,11 +5172,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5191,29 +5186,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5249,19 +5242,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5273,29 +5264,31 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5304,10 +5297,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5316,16 +5309,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5363,17 +5356,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5388,28 +5383,26 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5427,20 +5420,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5489,50 +5480,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5544,15 +5535,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5589,31 +5582,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5633,41 +5626,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5691,52 +5686,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5747,7 +5742,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5764,25 +5759,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5807,13 +5802,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5831,7 +5826,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5849,10 +5844,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5863,7 +5858,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5871,7 +5866,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5886,32 +5881,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5923,13 +5918,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5947,7 +5942,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5965,10 +5960,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5974,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6002,32 +5997,30 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -6063,7 +6056,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6081,10 +6074,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6095,7 +6088,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6103,7 +6096,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6118,17 +6111,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6141,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6177,7 +6168,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6195,10 +6186,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6209,7 +6200,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6232,15 +6223,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6289,7 +6282,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6307,10 +6300,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6321,7 +6314,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6332,7 +6325,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6344,16 +6337,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6403,13 +6396,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6418,13 +6411,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6435,7 +6428,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6458,16 +6451,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6517,7 +6510,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6532,13 +6525,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6547,13 +6540,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6563,7 +6556,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6572,17 +6565,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6631,7 +6622,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6646,13 +6637,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6661,13 +6652,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6677,7 +6668,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6686,13 +6677,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6743,7 +6734,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6758,13 +6749,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6773,23 +6764,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6798,16 +6789,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6855,13 +6850,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6870,13 +6865,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6887,15 +6882,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6904,26 +6899,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6947,13 +6940,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6971,10 +6964,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6986,24 +6979,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7029,13 +7022,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7061,13 +7054,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7085,7 +7078,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -7100,24 +7093,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7134,24 +7127,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7175,13 +7170,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7199,13 +7192,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7214,24 +7207,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7239,35 +7232,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7291,11 +7280,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7313,31 +7304,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7345,18 +7336,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7368,15 +7359,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7413,31 +7406,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7457,11 +7450,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7477,21 +7470,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7527,19 +7522,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7551,16 +7546,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7571,7 +7566,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7582,7 +7577,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7591,23 +7586,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7655,28 +7646,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7687,18 +7678,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7710,15 +7701,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7755,31 +7748,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7799,18 +7792,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7819,27 +7812,29 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7869,40 +7864,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7913,7 +7908,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7936,26 +7931,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7997,7 +7990,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8015,10 +8008,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8029,7 +8022,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8052,24 +8045,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8111,7 +8104,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8129,10 +8122,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8143,7 +8136,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8166,24 +8159,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8225,7 +8218,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8243,10 +8236,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8257,7 +8250,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8280,17 +8273,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8339,7 +8334,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8357,10 +8352,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8371,7 +8366,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8394,19 +8389,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8455,7 +8450,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8473,10 +8468,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8487,7 +8482,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8510,24 +8505,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8547,13 +8540,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8571,7 +8564,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8586,16 +8579,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8603,7 +8596,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8620,27 +8613,31 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8661,13 +8658,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8685,7 +8682,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8700,66 +8697,62 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8779,13 +8772,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8803,7 +8794,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8818,57 +8809,55 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8893,11 +8882,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8915,7 +8906,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8927,38 +8918,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>434</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8970,15 +8961,17 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9015,31 +9008,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9059,11 +9052,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9079,21 +9072,23 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9129,19 +9124,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9153,16 +9148,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9173,7 +9168,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9184,7 +9179,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9193,23 +9188,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9257,28 +9248,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9289,18 +9280,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9312,15 +9303,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9357,31 +9350,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9401,18 +9394,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9421,21 +9414,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9471,40 +9466,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9515,7 +9510,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9538,20 +9533,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9599,7 +9592,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9617,10 +9610,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9631,7 +9624,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9654,24 +9647,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9713,7 +9706,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9731,10 +9724,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9768,24 +9761,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9827,7 +9820,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9845,10 +9838,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9859,7 +9852,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9882,17 +9875,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9941,7 +9936,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9959,10 +9954,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9973,7 +9968,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9996,19 +9991,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10057,7 +10052,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10075,10 +10070,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10087,23 +10082,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10112,20 +10107,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10149,13 +10142,11 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10173,16 +10164,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10191,32 +10182,32 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -10228,18 +10219,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>456</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10263,11 +10254,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10285,16 +10278,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10303,21 +10296,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10331,27 +10324,25 @@
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>458</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>459</v>
+        <v>149</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10399,7 +10390,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>457</v>
+        <v>151</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10411,16 +10402,16 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>462</v>
+        <v>152</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10431,18 +10422,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10454,15 +10445,17 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10499,31 +10492,31 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10543,18 +10536,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10563,21 +10556,23 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>133</v>
+        <v>464</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>229</v>
+        <v>466</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10613,40 +10608,40 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>155</v>
+        <v>469</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>152</v>
+        <v>471</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10657,7 +10652,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10665,39 +10660,39 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>466</v>
+        <v>107</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="Q73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10717,13 +10712,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10741,7 +10736,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10759,10 +10754,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10773,7 +10768,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10781,41 +10776,39 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P74" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>79</v>
@@ -10833,13 +10826,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10857,7 +10850,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10875,10 +10868,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10889,7 +10882,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10912,24 +10905,24 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>79</v>
@@ -10971,7 +10964,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10980,7 +10973,7 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>99</v>
@@ -10989,10 +10982,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11003,7 +10996,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11026,24 +11019,26 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>79</v>
@@ -11085,7 +11080,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11094,7 +11089,7 @@
         <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -11103,10 +11098,10 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11115,9 +11110,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11131,7 +11126,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11140,26 +11135,22 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>107</v>
+        <v>506</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>79</v>
@@ -11204,7 +11195,7 @@
         <v>505</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>87</v>
@@ -11216,38 +11207,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11256,13 +11247,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11313,10 +11304,10 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>87</v>
@@ -11328,28 +11319,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11359,7 +11350,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11368,13 +11359,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11425,7 +11416,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11440,28 +11431,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11480,13 +11471,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11513,13 +11504,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11537,7 +11528,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11552,32 +11543,32 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>87</v>
@@ -11592,13 +11583,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11625,13 +11616,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11649,7 +11640,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11664,28 +11655,28 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11704,15 +11695,17 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11761,7 +11754,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11776,35 +11769,35 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>88</v>
@@ -11816,16 +11809,16 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>556</v>
+        <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11851,13 +11844,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11875,7 +11868,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11890,28 +11883,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11930,16 +11923,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>163</v>
+        <v>576</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11965,13 +11958,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11989,13 +11982,13 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
@@ -12004,38 +11997,38 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AL84" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12044,17 +12037,15 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>578</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12079,13 +12070,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12103,7 +12094,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12118,16 +12109,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12135,7 +12126,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12158,13 +12149,13 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>590</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12191,31 +12182,31 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12236,18 +12227,18 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12255,13 +12246,13 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12270,15 +12261,17 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>592</v>
+        <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12303,13 +12296,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12327,7 +12320,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12342,24 +12335,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12367,13 +12360,13 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12382,16 +12375,16 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>163</v>
+        <v>604</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12417,13 +12410,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12441,7 +12434,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12456,16 +12449,16 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12473,7 +12466,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12493,20 +12486,18 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12555,7 +12546,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12570,28 +12561,28 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12601,7 +12592,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12610,15 +12601,17 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12667,7 +12660,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12682,13 +12675,13 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12697,13 +12690,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12713,25 +12706,25 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12781,7 +12774,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12796,13 +12789,13 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>626</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12811,13 +12804,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>79</v>
+        <v>635</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12827,7 +12820,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12836,18 +12829,20 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>630</v>
+        <v>163</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12871,13 +12866,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>79</v>
+        <v>640</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>79</v>
+        <v>641</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12895,7 +12890,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12913,25 +12908,25 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12947,23 +12942,19 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>163</v>
+        <v>645</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>641</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -12987,13 +12978,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13011,7 +13002,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13026,24 +13017,24 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>79</v>
+        <v>648</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>634</v>
+        <v>454</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13054,7 +13045,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -13063,16 +13054,16 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>647</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13123,13 +13114,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13138,24 +13129,24 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>650</v>
+        <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13166,27 +13157,29 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>89</v>
+        <v>656</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13235,13 +13228,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13250,137 +13243,23 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN96">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13390,7 +13269,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="670">
   <si>
     <t>Property</t>
   </si>
@@ -2014,6 +2014,31 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2389,7 +2414,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12920,7 +12945,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>644</v>
       </c>
@@ -12933,10 +12958,10 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -12945,13 +12970,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>645</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>646</v>
+        <v>149</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>647</v>
+        <v>150</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13002,70 +13027,72 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>644</v>
+        <v>151</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>649</v>
+        <v>152</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>650</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>652</v>
+        <v>226</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13102,40 +13129,40 @@
         <v>79</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>651</v>
+        <v>155</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>654</v>
+        <v>152</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13146,9 +13173,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="B95" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="C95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13157,7 +13186,7 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -13169,17 +13198,15 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13228,7 +13255,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>655</v>
+        <v>155</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13240,26 +13267,596 @@
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ95" t="s" s="2">
+      <c r="AJ96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="AK95" t="s" s="2">
+      <c r="L99" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AL100" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13269,7 +13866,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="671">
   <si>
     <t>Property</t>
   </si>
@@ -558,14 +558,17 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -4182,7 +4185,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4200,7 +4203,7 @@
         <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4272,7 +4275,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4286,7 +4289,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4308,13 +4311,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4400,7 +4403,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4422,13 +4425,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4514,7 +4517,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4536,13 +4539,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4628,7 +4631,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4650,13 +4653,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4742,7 +4745,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4764,13 +4767,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4856,7 +4859,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4878,13 +4881,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4970,7 +4973,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4992,13 +4995,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5081,11 +5084,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -5107,16 +5110,16 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5165,7 +5168,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5197,7 +5200,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5220,16 +5223,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5267,7 +5270,7 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
@@ -5277,7 +5280,7 @@
         <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5292,27 +5295,27 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5334,16 +5337,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5393,7 +5396,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5408,24 +5411,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5537,11 +5540,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5563,13 +5566,13 @@
         <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5651,7 +5654,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5677,16 +5680,16 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5711,13 +5714,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5735,7 +5738,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5756,7 +5759,7 @@
         <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5767,7 +5770,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5793,16 +5796,16 @@
         <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5830,10 +5833,10 @@
         <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5851,7 +5854,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5869,10 +5872,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5883,7 +5886,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5909,29 +5912,29 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5967,7 +5970,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5985,10 +5988,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5999,7 +6002,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6025,13 +6028,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6045,7 +6048,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -6081,7 +6084,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6099,10 +6102,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6113,7 +6116,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6136,13 +6139,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6193,7 +6196,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6211,10 +6214,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6225,7 +6228,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6248,16 +6251,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6307,7 +6310,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6325,10 +6328,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6339,7 +6342,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6362,16 +6365,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6421,7 +6424,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6436,13 +6439,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6453,7 +6456,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6479,13 +6482,13 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6535,7 +6538,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6550,13 +6553,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6567,11 +6570,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6590,13 +6593,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6647,7 +6650,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6662,13 +6665,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6679,11 +6682,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6702,13 +6705,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6759,7 +6762,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6774,13 +6777,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6791,11 +6794,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6814,19 +6817,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6875,7 +6878,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6890,13 +6893,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6907,7 +6910,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6933,13 +6936,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6965,13 +6968,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6989,7 +6992,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -7004,24 +7007,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7047,13 +7050,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7079,13 +7082,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7103,7 +7106,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -7118,16 +7121,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7135,7 +7138,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7161,16 +7164,16 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7199,7 +7202,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7217,7 +7220,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7235,13 +7238,13 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7249,7 +7252,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7361,11 +7364,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7387,13 +7390,13 @@
         <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7475,7 +7478,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7498,19 +7501,19 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7559,7 +7562,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7577,10 +7580,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7591,7 +7594,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7703,11 +7706,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7729,13 +7732,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7817,7 +7820,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7843,23 +7846,23 @@
         <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7901,7 +7904,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7919,10 +7922,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7933,7 +7936,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7959,13 +7962,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8015,7 +8018,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8033,10 +8036,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8047,7 +8050,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8073,21 +8076,21 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8129,7 +8132,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8147,10 +8150,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8187,14 +8190,14 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8243,7 +8246,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8261,10 +8264,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8275,7 +8278,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8298,19 +8301,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8359,7 +8362,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8377,10 +8380,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8391,7 +8394,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8417,16 +8420,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8475,7 +8478,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8493,10 +8496,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8507,7 +8510,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8533,10 +8536,10 @@
         <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8544,7 +8547,7 @@
         <v>79</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
@@ -8565,13 +8568,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8589,7 +8592,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8604,16 +8607,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8621,7 +8624,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8644,70 +8647,70 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8722,13 +8725,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8739,11 +8742,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8765,13 +8768,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8797,11 +8800,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8819,7 +8822,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8834,24 +8837,24 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8963,11 +8966,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8989,13 +8992,13 @@
         <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9077,7 +9080,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9100,19 +9103,19 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9161,7 +9164,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9179,10 +9182,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9193,7 +9196,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9305,11 +9308,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9331,13 +9334,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9419,7 +9422,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9445,16 +9448,16 @@
         <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9503,7 +9506,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9521,10 +9524,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9535,7 +9538,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9561,13 +9564,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9617,7 +9620,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9635,10 +9638,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9649,7 +9652,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9675,21 +9678,21 @@
         <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9731,7 +9734,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9749,10 +9752,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9763,7 +9766,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9789,14 +9792,14 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9845,7 +9848,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9863,10 +9866,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9877,7 +9880,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9900,19 +9903,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9961,7 +9964,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9979,10 +9982,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9993,7 +9996,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10019,16 +10022,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10077,7 +10080,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10095,10 +10098,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10109,11 +10112,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10135,13 +10138,13 @@
         <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10167,11 +10170,11 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10189,7 +10192,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10198,7 +10201,7 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10207,21 +10210,21 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10244,17 +10247,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10303,7 +10306,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10321,10 +10324,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10335,7 +10338,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10447,11 +10450,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10473,13 +10476,13 @@
         <v>133</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10561,7 +10564,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10584,19 +10587,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10645,7 +10648,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10663,10 +10666,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10677,7 +10680,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10703,20 +10706,20 @@
         <v>107</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q73" t="s" s="2">
         <v>79</v>
@@ -10737,13 +10740,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10761,7 +10764,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10779,10 +10782,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10793,7 +10796,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10819,21 +10822,21 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>79</v>
@@ -10875,7 +10878,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10893,10 +10896,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10907,7 +10910,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10933,21 +10936,21 @@
         <v>101</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>79</v>
@@ -10989,7 +10992,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10998,7 +11001,7 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>99</v>
@@ -11007,10 +11010,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11021,7 +11024,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11047,23 +11050,23 @@
         <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>79</v>
@@ -11105,7 +11108,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11123,10 +11126,10 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11137,7 +11140,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11160,13 +11163,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11217,7 +11220,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>87</v>
@@ -11232,28 +11235,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11272,13 +11275,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11329,7 +11332,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11344,28 +11347,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11384,13 +11387,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11441,7 +11444,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11456,24 +11459,24 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11496,13 +11499,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11532,10 +11535,10 @@
         <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11553,7 +11556,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11574,22 +11577,22 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11608,13 +11611,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11665,7 +11668,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11680,28 +11683,28 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11720,16 +11723,16 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11779,7 +11782,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11794,28 +11797,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11837,13 +11840,13 @@
         <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11872,10 +11875,10 @@
         <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11893,7 +11896,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11908,16 +11911,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11925,11 +11928,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11948,16 +11951,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12007,7 +12010,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12022,16 +12025,16 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12039,7 +12042,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12065,10 +12068,10 @@
         <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12098,10 +12101,10 @@
         <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12119,7 +12122,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12140,10 +12143,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12151,7 +12154,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12174,13 +12177,13 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12231,7 +12234,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12252,10 +12255,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12263,7 +12266,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12289,13 +12292,13 @@
         <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12324,10 +12327,10 @@
         <v>166</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12345,7 +12348,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12360,16 +12363,16 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12377,7 +12380,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12400,16 +12403,16 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12459,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12474,16 +12477,16 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12491,7 +12494,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12514,13 +12517,13 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12571,7 +12574,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12586,13 +12589,13 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12603,11 +12606,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12626,16 +12629,16 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12685,7 +12688,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12700,13 +12703,13 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12717,7 +12720,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12740,16 +12743,16 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12799,7 +12802,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12817,10 +12820,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12831,11 +12834,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12857,16 +12860,16 @@
         <v>163</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12894,10 +12897,10 @@
         <v>166</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12915,7 +12918,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12933,21 +12936,21 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13059,11 +13062,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13085,13 +13088,13 @@
         <v>133</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13173,10 +13176,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>79</v>
@@ -13198,13 +13201,13 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13287,7 +13290,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13310,19 +13313,19 @@
         <v>88</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13371,7 +13374,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13389,10 +13392,10 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13403,7 +13406,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13429,16 +13432,16 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13487,7 +13490,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13505,10 +13508,10 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13519,7 +13522,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13542,13 +13545,13 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13599,7 +13602,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13614,24 +13617,24 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13657,10 +13660,10 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13711,7 +13714,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13729,10 +13732,10 @@
         <v>79</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13743,7 +13746,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13766,16 +13769,16 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13825,7 +13828,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13840,13 +13843,13 @@
         <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="673">
   <si>
     <t>Property</t>
   </si>
@@ -613,7 +613,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -657,6 +657,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2417,7 +2424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5082,45 +5089,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5168,7 +5173,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5177,7 +5182,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5189,7 +5194,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5200,11 +5205,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5214,27 +5219,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5270,17 +5277,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5292,31 +5301,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5325,10 +5332,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5337,16 +5344,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5384,19 +5391,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5411,26 +5416,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5448,18 +5455,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5508,50 +5517,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5563,17 +5572,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5610,31 +5617,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5654,43 +5661,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5714,52 +5719,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5770,7 +5775,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5787,25 +5792,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5830,13 +5835,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5854,7 +5859,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5872,10 +5877,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5886,7 +5891,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5894,7 +5899,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5909,32 +5914,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5946,13 +5951,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5970,7 +5975,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5988,10 +5993,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6002,7 +6007,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6025,30 +6030,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -6084,7 +6091,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6102,10 +6109,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6116,7 +6123,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6124,7 +6131,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6139,15 +6146,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6160,7 +6169,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6196,7 +6205,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6214,10 +6223,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6228,7 +6237,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6251,17 +6260,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6310,7 +6317,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6328,10 +6335,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6342,7 +6349,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6353,7 +6360,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6365,16 +6372,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6424,13 +6431,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6439,13 +6446,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6456,7 +6463,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6479,16 +6486,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6538,7 +6545,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6553,13 +6560,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6568,13 +6575,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6584,7 +6591,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6593,15 +6600,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6650,7 +6659,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6665,13 +6674,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6680,13 +6689,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6696,7 +6705,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6705,13 +6714,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6762,7 +6771,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6777,13 +6786,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6792,23 +6801,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6817,20 +6826,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6878,13 +6883,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6893,13 +6898,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6910,15 +6915,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6927,24 +6932,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6968,13 +6975,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6992,10 +6999,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -7007,24 +7014,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7050,13 +7057,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7082,13 +7089,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7106,7 +7113,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -7121,24 +7128,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7155,26 +7162,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7198,11 +7203,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7220,13 +7227,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7235,24 +7242,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7260,31 +7267,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7308,13 +7319,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7332,31 +7341,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7364,18 +7373,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7387,17 +7396,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7434,31 +7441,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7478,11 +7485,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7498,23 +7505,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7550,19 +7555,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7574,16 +7579,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7594,7 +7599,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7605,7 +7610,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7614,19 +7619,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7674,28 +7683,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7706,18 +7715,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7729,17 +7738,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7776,31 +7783,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7820,18 +7827,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7840,29 +7847,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7892,40 +7897,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7936,7 +7941,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7959,24 +7964,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -8018,7 +8025,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8036,10 +8043,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8050,7 +8057,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8073,24 +8080,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8132,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8150,10 +8157,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8164,7 +8171,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8187,24 +8194,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8246,7 +8253,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8264,10 +8271,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8278,7 +8285,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8301,19 +8308,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8362,7 +8367,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8380,10 +8385,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8394,7 +8399,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8417,19 +8422,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8478,7 +8483,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8496,10 +8501,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8510,7 +8515,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8533,22 +8538,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8568,13 +8575,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8592,7 +8599,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8607,16 +8614,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8624,7 +8631,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8641,31 +8648,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8686,13 +8689,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8710,7 +8713,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8725,62 +8728,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8800,11 +8807,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8822,7 +8831,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8837,55 +8846,57 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8910,13 +8921,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8934,7 +8943,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>151</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8946,38 +8955,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8989,17 +8998,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9036,31 +9043,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9080,11 +9087,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9100,23 +9107,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9152,19 +9157,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9176,16 +9181,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9196,7 +9201,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9207,7 +9212,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9216,19 +9221,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9276,28 +9285,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9308,18 +9317,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9331,17 +9340,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9378,31 +9385,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9422,18 +9429,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9442,23 +9449,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9494,40 +9499,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9538,7 +9543,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9561,18 +9566,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9620,7 +9627,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9638,10 +9645,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9652,7 +9659,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9675,24 +9682,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9734,7 +9741,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9752,10 +9759,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9789,24 +9796,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9848,7 +9855,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9866,10 +9873,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9880,7 +9887,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9903,19 +9910,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9964,7 +9969,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9982,10 +9987,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9996,7 +10001,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10019,19 +10024,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10080,7 +10085,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10098,10 +10103,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10110,23 +10115,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10135,18 +10140,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10170,11 +10177,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10192,16 +10201,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10210,32 +10219,32 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -10247,18 +10256,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>457</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10282,13 +10291,11 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10306,16 +10313,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10324,21 +10331,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10352,25 +10359,27 @@
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>150</v>
+        <v>461</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10418,7 +10427,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>151</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10430,16 +10439,16 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>152</v>
+        <v>463</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10450,18 +10459,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10473,17 +10482,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10520,31 +10527,31 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10564,18 +10571,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10584,23 +10591,21 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>465</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>466</v>
+        <v>229</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>467</v>
+        <v>230</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10636,40 +10641,40 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>470</v>
+        <v>155</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>472</v>
+        <v>152</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10680,7 +10685,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10688,39 +10693,39 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P73" t="s" s="2">
-        <v>477</v>
-      </c>
+      <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10740,13 +10745,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10764,7 +10769,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10782,10 +10787,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10796,7 +10801,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10804,39 +10809,41 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="Q74" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>79</v>
@@ -10854,13 +10861,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10878,7 +10885,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10896,10 +10903,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10910,7 +10917,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10933,24 +10940,24 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>79</v>
@@ -10992,7 +10999,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11001,7 +11008,7 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>99</v>
@@ -11010,10 +11017,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11024,7 +11031,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11047,26 +11054,24 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>79</v>
@@ -11108,7 +11113,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11117,7 +11122,7 @@
         <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -11126,10 +11131,10 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11138,9 +11143,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11154,7 +11159,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11163,22 +11168,26 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>507</v>
+        <v>107</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>79</v>
@@ -11223,7 +11232,7 @@
         <v>506</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>87</v>
@@ -11235,38 +11244,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11275,13 +11284,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11332,10 +11341,10 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>87</v>
@@ -11347,28 +11356,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11378,7 +11387,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11387,13 +11396,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11444,7 +11453,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11459,28 +11468,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11499,13 +11508,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11532,13 +11541,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11556,7 +11565,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11571,32 +11580,32 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>87</v>
@@ -11611,13 +11620,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11644,13 +11653,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11668,7 +11677,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11683,28 +11692,28 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11723,17 +11732,15 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11782,7 +11789,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11797,35 +11804,35 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>88</v>
@@ -11837,16 +11844,16 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>163</v>
+        <v>557</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11872,13 +11879,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11896,7 +11903,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11911,28 +11918,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11951,16 +11958,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>577</v>
+        <v>163</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11986,13 +11993,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -12010,13 +12017,13 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
@@ -12025,38 +12032,38 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12065,15 +12072,17 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>579</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12098,13 +12107,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12122,7 +12131,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12137,16 +12146,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12154,7 +12163,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12177,13 +12186,13 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>591</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12210,13 +12219,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12234,7 +12243,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12255,18 +12264,18 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12274,13 +12283,13 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12289,17 +12298,15 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>163</v>
+        <v>593</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12324,13 +12331,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12348,7 +12355,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12363,24 +12370,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12388,13 +12395,13 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12403,16 +12410,16 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>605</v>
+        <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12438,13 +12445,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12462,7 +12469,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12477,16 +12484,16 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12494,7 +12501,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12514,18 +12521,20 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12574,7 +12583,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12589,28 +12598,28 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12620,7 +12629,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12629,17 +12638,15 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12688,7 +12695,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12703,13 +12710,13 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12718,13 +12725,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>79</v>
+        <v>622</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12734,25 +12741,25 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12802,7 +12809,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12817,13 +12824,13 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>79</v>
+        <v>627</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12832,13 +12839,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>636</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12848,7 +12855,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12857,20 +12864,18 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>163</v>
+        <v>631</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12894,13 +12899,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>641</v>
+        <v>79</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12918,7 +12923,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12936,53 +12941,57 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>638</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>149</v>
+        <v>639</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13006,13 +13015,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13030,50 +13039,50 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>151</v>
+        <v>637</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>79</v>
+        <v>635</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>152</v>
+        <v>645</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>79</v>
+        <v>646</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -13085,17 +13094,15 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13132,31 +13139,31 @@
         <v>79</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
@@ -13176,20 +13183,18 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>647</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -13201,15 +13206,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>648</v>
+        <v>133</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>649</v>
+        <v>229</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13246,16 +13253,16 @@
         <v>79</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE95" t="s" s="2">
         <v>155</v>
@@ -13279,7 +13286,7 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13290,9 +13297,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="C96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13301,7 +13310,7 @@
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>79</v>
@@ -13310,23 +13319,19 @@
         <v>79</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>349</v>
+        <v>650</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>350</v>
+        <v>651</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13374,7 +13379,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13386,16 +13391,16 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13406,7 +13411,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13417,7 +13422,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13429,19 +13434,19 @@
         <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13490,13 +13495,13 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -13508,10 +13513,10 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13520,9 +13525,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13533,28 +13538,32 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J98" t="s" s="2">
-        <v>654</v>
+        <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>655</v>
+        <v>402</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13602,13 +13611,13 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>653</v>
+        <v>406</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -13617,24 +13626,24 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>657</v>
+        <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>658</v>
+        <v>408</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13645,7 +13654,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>88</v>
@@ -13654,16 +13663,16 @@
         <v>79</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>656</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13714,13 +13723,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13729,24 +13738,24 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>79</v>
+        <v>661</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13757,29 +13766,27 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>665</v>
+        <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -13828,13 +13835,13 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -13843,23 +13850,137 @@
         <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="AK100" t="s" s="2">
+      <c r="M101" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AL101" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN100">
+  <autoFilter ref="A1:AN101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13869,7 +13990,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="675">
   <si>
     <t>Property</t>
   </si>
@@ -663,6 +663,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
   </si>
   <si>
@@ -2424,7 +2431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5203,45 +5210,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5289,7 +5294,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5298,7 +5303,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>139</v>
@@ -5310,7 +5315,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5321,11 +5326,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5335,27 +5340,29 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5391,17 +5398,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5413,31 +5422,29 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5446,10 +5453,10 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5458,16 +5465,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5505,19 +5512,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5532,26 +5537,28 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5569,18 +5576,20 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5629,50 +5638,50 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5684,17 +5693,15 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5731,31 +5738,31 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5775,43 +5782,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5835,52 +5840,52 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5891,7 +5896,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5908,25 +5913,25 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5951,13 +5956,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5975,7 +5980,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5993,10 +5998,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6007,7 +6012,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6015,7 +6020,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -6030,32 +6035,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -6067,13 +6072,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6091,7 +6096,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6109,10 +6114,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6123,7 +6128,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6146,30 +6151,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6205,7 +6212,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6223,10 +6230,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6237,7 +6244,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6245,7 +6252,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6260,15 +6267,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6281,7 +6290,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6317,7 +6326,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6335,10 +6344,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6349,7 +6358,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6372,17 +6381,15 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6431,7 +6438,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6449,10 +6456,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6463,7 +6470,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6474,7 +6481,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6486,16 +6493,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6545,13 +6552,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6560,13 +6567,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6577,7 +6584,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6600,16 +6607,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6659,7 +6666,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6674,13 +6681,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6689,13 +6696,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6705,7 +6712,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6714,15 +6721,17 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6771,7 +6780,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6786,13 +6795,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6801,13 +6810,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6817,7 +6826,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6826,13 +6835,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6883,7 +6892,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6898,13 +6907,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6913,23 +6922,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6938,20 +6947,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6999,13 +7004,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -7014,13 +7019,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -7031,15 +7036,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
@@ -7048,24 +7053,26 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7089,13 +7096,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7113,10 +7120,10 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -7128,24 +7135,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7171,13 +7178,13 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7203,13 +7210,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7227,7 +7234,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>87</v>
@@ -7242,24 +7249,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7276,26 +7283,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7319,11 +7324,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7341,13 +7348,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7356,24 +7363,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7381,31 +7388,35 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7429,13 +7440,11 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7453,31 +7462,31 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7485,18 +7494,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7508,17 +7517,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7555,31 +7562,31 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7599,11 +7606,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7619,23 +7626,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7671,19 +7676,19 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7695,16 +7700,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7715,7 +7720,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7726,7 +7731,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7735,19 +7740,23 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7795,28 +7804,28 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7827,18 +7836,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7850,17 +7859,15 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7897,31 +7904,31 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7941,18 +7948,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7961,29 +7968,27 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -8013,40 +8018,40 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8057,7 +8062,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8080,24 +8085,26 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8139,7 +8146,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8157,10 +8164,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8171,7 +8178,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8194,24 +8201,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8253,7 +8260,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8271,10 +8278,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8285,7 +8292,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8308,24 +8315,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8367,7 +8374,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8385,10 +8392,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8399,7 +8406,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8422,19 +8429,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8483,7 +8488,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8501,10 +8506,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8515,7 +8520,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8538,19 +8543,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8599,7 +8604,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8617,10 +8622,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8631,7 +8636,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8654,22 +8659,24 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8689,13 +8696,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8713,7 +8720,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8728,16 +8735,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8745,7 +8752,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8762,31 +8769,27 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
@@ -8807,13 +8810,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8831,7 +8834,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8846,62 +8849,66 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8921,11 +8928,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8943,7 +8952,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8958,55 +8967,57 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9031,13 +9042,11 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -9055,7 +9064,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9067,38 +9076,38 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -9110,17 +9119,15 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9157,31 +9164,31 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9201,11 +9208,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9221,23 +9228,21 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9273,19 +9278,19 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9297,16 +9302,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9317,7 +9322,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9328,7 +9333,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9337,19 +9342,23 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9397,28 +9406,28 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9429,18 +9438,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9452,17 +9461,15 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9499,31 +9506,31 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9543,18 +9550,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9563,23 +9570,21 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9615,40 +9620,40 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9659,7 +9664,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9682,18 +9687,20 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9741,7 +9748,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9759,10 +9766,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9773,7 +9780,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9796,24 +9803,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9855,7 +9862,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9873,10 +9880,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9910,24 +9917,24 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9969,7 +9976,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9987,10 +9994,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -10001,7 +10008,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10024,19 +10031,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10085,7 +10090,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10103,10 +10108,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10117,7 +10122,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10140,19 +10145,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10201,7 +10206,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10219,10 +10224,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10231,23 +10236,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10256,18 +10261,20 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10291,11 +10298,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10313,16 +10322,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10331,32 +10340,32 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10368,18 +10377,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>459</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10403,13 +10412,11 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10427,16 +10434,16 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10445,21 +10452,21 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10473,25 +10480,27 @@
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>461</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>149</v>
+        <v>462</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>150</v>
+        <v>463</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10539,7 +10548,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>151</v>
+        <v>460</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10551,16 +10560,16 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>152</v>
+        <v>465</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10571,18 +10580,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10594,17 +10603,15 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10641,31 +10648,31 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
@@ -10685,18 +10692,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10705,23 +10712,21 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>468</v>
+        <v>231</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>469</v>
+        <v>232</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10757,40 +10762,40 @@
         <v>79</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>472</v>
+        <v>155</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>474</v>
+        <v>152</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10801,7 +10806,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10809,39 +10814,39 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>107</v>
+        <v>469</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P74" t="s" s="2">
-        <v>479</v>
-      </c>
+      <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10861,13 +10866,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10885,7 +10890,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10903,10 +10908,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10917,7 +10922,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10925,39 +10930,41 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="Q75" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>79</v>
@@ -10975,13 +10982,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10999,7 +11006,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11017,10 +11024,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11031,7 +11038,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11054,24 +11061,24 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>79</v>
@@ -11113,7 +11120,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11122,7 +11129,7 @@
         <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -11131,10 +11138,10 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11145,7 +11152,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11168,26 +11175,24 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>79</v>
@@ -11229,7 +11234,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11238,7 +11243,7 @@
         <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>99</v>
@@ -11247,10 +11252,10 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11259,9 +11264,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11275,7 +11280,7 @@
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11284,22 +11289,26 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>509</v>
+        <v>107</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>79</v>
@@ -11344,7 +11353,7 @@
         <v>508</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>87</v>
@@ -11356,38 +11365,38 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11396,13 +11405,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11453,10 +11462,10 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>87</v>
@@ -11468,28 +11477,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11499,7 +11508,7 @@
         <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11508,13 +11517,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11565,7 +11574,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11580,28 +11589,28 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11620,13 +11629,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11653,13 +11662,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11677,7 +11686,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11692,32 +11701,32 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>87</v>
@@ -11732,13 +11741,13 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11765,13 +11774,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11789,7 +11798,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11804,28 +11813,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11844,17 +11853,15 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11903,7 +11910,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11918,35 +11925,35 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>88</v>
@@ -11958,16 +11965,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11993,13 +12000,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -12017,7 +12024,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12032,28 +12039,28 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12072,16 +12079,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>579</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12107,13 +12114,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12131,13 +12138,13 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
@@ -12146,38 +12153,38 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12186,15 +12193,17 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>581</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12219,13 +12228,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>589</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12243,7 +12252,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12258,16 +12267,16 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12275,7 +12284,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12298,13 +12307,13 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>593</v>
+        <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12331,13 +12340,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12355,7 +12364,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12376,18 +12385,18 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12395,13 +12404,13 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12410,17 +12419,15 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>163</v>
+        <v>595</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12445,13 +12452,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12469,7 +12476,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12484,24 +12491,24 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12509,13 +12516,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12524,16 +12531,16 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>607</v>
+        <v>163</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12559,13 +12566,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12583,7 +12590,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12598,16 +12605,16 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12615,7 +12622,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12635,18 +12642,20 @@
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12695,7 +12704,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12710,28 +12719,28 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>622</v>
+        <v>79</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12741,7 +12750,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -12750,17 +12759,15 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12809,7 +12816,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12824,13 +12831,13 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12839,13 +12846,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>79</v>
+        <v>624</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12855,25 +12862,25 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12923,7 +12930,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12938,13 +12945,13 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>629</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12953,13 +12960,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>638</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12969,7 +12976,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -12978,20 +12985,18 @@
         <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>163</v>
+        <v>633</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>642</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13015,13 +13020,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13039,7 +13044,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13057,53 +13062,57 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>646</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>79</v>
+        <v>640</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>149</v>
+        <v>641</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13127,13 +13136,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>79</v>
+        <v>646</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13151,50 +13160,50 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>151</v>
+        <v>639</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>152</v>
+        <v>647</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>79</v>
+        <v>648</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -13206,17 +13215,15 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13253,31 +13260,31 @@
         <v>79</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
@@ -13297,20 +13304,18 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>649</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>79</v>
@@ -13322,15 +13327,17 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>650</v>
+        <v>133</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>651</v>
+        <v>231</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13367,16 +13374,16 @@
         <v>79</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE96" t="s" s="2">
         <v>155</v>
@@ -13400,7 +13407,7 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13411,9 +13418,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="B97" s="2"/>
+        <v>650</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="C97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13422,7 +13431,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13431,23 +13440,19 @@
         <v>79</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>351</v>
+        <v>652</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>352</v>
+        <v>653</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13495,7 +13500,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13507,16 +13512,16 @@
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13527,7 +13532,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13538,7 +13543,7 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>79</v>
@@ -13550,19 +13555,19 @@
         <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13611,13 +13616,13 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -13629,10 +13634,10 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
@@ -13641,9 +13646,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13654,28 +13659,32 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J99" t="s" s="2">
-        <v>656</v>
+        <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>657</v>
+        <v>404</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
       </c>
@@ -13723,13 +13732,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>655</v>
+        <v>408</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13738,24 +13747,24 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>660</v>
+        <v>410</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>661</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13766,7 +13775,7 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>88</v>
@@ -13775,16 +13784,16 @@
         <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>89</v>
+        <v>658</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13835,13 +13844,13 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -13850,24 +13859,24 @@
         <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>79</v>
+        <v>661</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>79</v>
+        <v>663</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13878,29 +13887,27 @@
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>667</v>
+        <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>670</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>79</v>
@@ -13949,13 +13956,13 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
@@ -13964,23 +13971,137 @@
         <v>99</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="AK101" t="s" s="2">
+      <c r="M102" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL101" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AL102" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN101">
+  <autoFilter ref="A1:AN102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13990,7 +14111,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -623,6 +623,19 @@
     <t>Request must be performed before</t>
   </si>
   <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
@@ -671,6 +684,9 @@
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2431,7 +2447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4766,7 +4782,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4880,7 +4896,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
@@ -5015,7 +5031,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5101,7 +5117,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -5123,13 +5139,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5215,7 +5231,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
@@ -5237,13 +5253,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5324,45 +5340,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5410,7 +5424,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5419,7 +5433,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5431,7 +5445,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5442,11 +5456,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5456,27 +5470,29 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5512,17 +5528,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5534,31 +5552,29 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5567,10 +5583,10 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5579,16 +5595,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5626,19 +5642,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5653,26 +5667,28 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5690,18 +5706,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5750,50 +5768,50 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5805,17 +5823,15 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5852,31 +5868,31 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5896,43 +5912,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5956,52 +5970,52 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6012,7 +6026,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6029,25 +6043,25 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6072,13 +6086,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6096,7 +6110,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6114,10 +6128,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6142,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6136,7 +6150,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6151,32 +6165,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6188,13 +6202,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6212,7 +6226,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6230,10 +6244,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6244,7 +6258,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6267,30 +6281,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6326,7 +6342,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6344,10 +6360,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6358,7 +6374,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6366,7 +6382,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6381,15 +6397,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6402,7 +6420,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6438,7 +6456,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6456,10 +6474,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6470,7 +6488,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6493,17 +6511,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6552,7 +6568,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6570,10 +6586,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6584,7 +6600,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6595,7 +6611,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6607,16 +6623,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6666,13 +6682,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6681,13 +6697,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6698,7 +6714,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6721,16 +6737,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6780,7 +6796,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6795,13 +6811,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6810,13 +6826,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6826,7 +6842,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6835,15 +6851,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6907,28 +6925,28 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6938,7 +6956,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6947,13 +6965,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7004,7 +7022,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7019,38 +7037,38 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -7059,20 +7077,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7120,13 +7134,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -7135,13 +7149,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7152,15 +7166,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -7169,24 +7183,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7210,13 +7226,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7234,10 +7250,10 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -7249,24 +7265,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7292,13 +7308,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7324,13 +7340,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7348,7 +7364,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7363,24 +7379,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7397,26 +7413,24 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7440,11 +7454,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7462,13 +7478,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7477,24 +7493,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7502,31 +7518,35 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7550,13 +7570,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7574,31 +7592,31 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7606,18 +7624,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7629,17 +7647,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7676,31 +7692,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7720,11 +7736,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7740,23 +7756,21 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7792,19 +7806,19 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7816,16 +7830,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7836,7 +7850,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7847,7 +7861,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7856,19 +7870,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7916,28 +7934,28 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7948,18 +7966,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7971,17 +7989,15 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -8018,31 +8034,31 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -8062,18 +8078,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -8082,29 +8098,27 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8134,40 +8148,40 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8178,7 +8192,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8201,24 +8215,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8260,7 +8276,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8278,10 +8294,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8292,7 +8308,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8315,24 +8331,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8374,7 +8390,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8392,10 +8408,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8406,7 +8422,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8429,24 +8445,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8488,7 +8504,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8506,10 +8522,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8520,7 +8536,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8543,19 +8559,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8604,7 +8618,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8622,10 +8636,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8636,7 +8650,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8659,19 +8673,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8720,7 +8734,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8738,10 +8752,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8752,7 +8766,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8775,66 +8789,68 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8849,16 +8865,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8866,7 +8882,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8883,31 +8899,27 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8928,13 +8940,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8952,7 +8964,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8967,62 +8979,66 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>400</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9042,11 +9058,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -9064,7 +9082,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9079,55 +9097,57 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9152,13 +9172,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9176,7 +9194,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9188,38 +9206,38 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9231,17 +9249,15 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9278,31 +9294,31 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9322,11 +9338,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9342,23 +9358,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9394,19 +9408,19 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9418,16 +9432,16 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9438,7 +9452,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9449,7 +9463,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9458,19 +9472,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9518,28 +9536,28 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9550,18 +9568,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9573,17 +9591,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9620,31 +9636,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9664,18 +9680,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9684,23 +9700,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9736,40 +9750,40 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9780,7 +9794,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9803,18 +9817,20 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9862,7 +9878,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9880,10 +9896,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9894,7 +9910,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9917,24 +9933,24 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9976,7 +9992,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9994,10 +10010,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -10008,7 +10024,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10031,24 +10047,24 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -10090,7 +10106,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10108,10 +10124,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10122,7 +10138,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10145,19 +10161,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10206,7 +10220,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10224,10 +10238,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10238,7 +10252,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10261,19 +10275,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10322,7 +10336,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10340,10 +10354,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10352,23 +10366,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10377,18 +10391,20 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10412,11 +10428,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10434,16 +10452,16 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10452,32 +10470,32 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>88</v>
@@ -10489,18 +10507,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>464</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10524,13 +10542,11 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10548,16 +10564,16 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10566,21 +10582,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10594,25 +10610,27 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>466</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>149</v>
+        <v>467</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>150</v>
+        <v>468</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10660,7 +10678,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>151</v>
+        <v>465</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10672,16 +10690,16 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>152</v>
+        <v>470</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10692,18 +10710,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10715,17 +10733,15 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10762,31 +10778,31 @@
         <v>79</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
@@ -10806,18 +10822,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10826,23 +10842,21 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>469</v>
+        <v>133</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>236</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>237</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10878,40 +10892,40 @@
         <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>474</v>
+        <v>155</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>476</v>
+        <v>152</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10922,7 +10936,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10930,83 +10944,83 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>107</v>
+        <v>474</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Q75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11024,10 +11038,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11038,7 +11052,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11046,39 +11060,41 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="Q76" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>79</v>
@@ -11096,13 +11112,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11120,7 +11136,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11138,10 +11154,10 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11152,7 +11168,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11175,24 +11191,24 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>79</v>
@@ -11234,7 +11250,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11243,7 +11259,7 @@
         <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>99</v>
@@ -11252,10 +11268,10 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11266,7 +11282,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11289,26 +11305,24 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>79</v>
@@ -11350,7 +11364,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11359,7 +11373,7 @@
         <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>99</v>
@@ -11368,10 +11382,10 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11380,9 +11394,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11396,7 +11410,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11405,22 +11419,26 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>79</v>
@@ -11462,10 +11480,10 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>87</v>
@@ -11477,38 +11495,38 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11517,13 +11535,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11574,10 +11592,10 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>87</v>
@@ -11589,28 +11607,28 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11620,7 +11638,7 @@
         <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11629,13 +11647,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11686,7 +11704,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11701,28 +11719,28 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11741,13 +11759,13 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11774,13 +11792,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11798,7 +11816,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11813,32 +11831,32 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>87</v>
@@ -11853,13 +11871,13 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11886,13 +11904,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11910,7 +11928,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11925,28 +11943,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11965,17 +11983,15 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12024,7 +12040,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12039,35 +12055,35 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>88</v>
@@ -12079,16 +12095,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>564</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12114,13 +12130,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12138,7 +12154,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12153,28 +12169,28 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12193,16 +12209,16 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>581</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12228,13 +12244,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12252,13 +12268,13 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
@@ -12267,38 +12283,38 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12307,15 +12323,17 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>163</v>
+        <v>586</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12340,13 +12358,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12364,7 +12382,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12379,16 +12397,16 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12396,7 +12414,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12419,13 +12437,13 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12452,13 +12470,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12476,7 +12494,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12497,18 +12515,18 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12516,13 +12534,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12531,17 +12549,15 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>163</v>
+        <v>600</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M89" t="s" s="2">
         <v>601</v>
       </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12566,13 +12582,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12590,7 +12606,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12605,24 +12621,24 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12630,13 +12646,13 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12645,16 +12661,16 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>609</v>
+        <v>163</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12680,13 +12696,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>79</v>
+        <v>608</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12704,7 +12720,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12719,16 +12735,16 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12736,7 +12752,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12756,18 +12772,20 @@
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="K91" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12816,7 +12834,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12831,28 +12849,28 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>624</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12862,7 +12880,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12871,17 +12889,15 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12930,7 +12946,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12945,13 +12961,13 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12960,13 +12976,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>629</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12976,25 +12992,25 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13044,7 +13060,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13059,28 +13075,28 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>79</v>
+        <v>634</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13090,7 +13106,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
@@ -13099,20 +13115,18 @@
         <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>163</v>
+        <v>638</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>644</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13136,13 +13150,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>645</v>
+        <v>79</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>646</v>
+        <v>79</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13160,7 +13174,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13178,53 +13192,57 @@
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>648</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>149</v>
+        <v>646</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13248,13 +13266,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>79</v>
+        <v>650</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13272,50 +13290,50 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>151</v>
+        <v>644</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>152</v>
+        <v>652</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>79</v>
@@ -13327,17 +13345,15 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13374,31 +13390,31 @@
         <v>79</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>79</v>
@@ -13418,20 +13434,18 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13443,15 +13457,17 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>652</v>
+        <v>133</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>653</v>
+        <v>236</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13488,16 +13504,16 @@
         <v>79</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>155</v>
@@ -13521,7 +13537,7 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13534,7 +13550,9 @@
       <c r="A98" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="C98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13543,7 +13561,7 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>79</v>
@@ -13552,23 +13570,19 @@
         <v>79</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>353</v>
+        <v>657</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>354</v>
+        <v>658</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13616,7 +13630,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13628,16 +13642,16 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
@@ -13648,7 +13662,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13659,7 +13673,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13671,19 +13685,19 @@
         <v>88</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13732,13 +13746,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13750,10 +13764,10 @@
         <v>79</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13762,9 +13776,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13775,28 +13789,32 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J100" t="s" s="2">
-        <v>658</v>
+        <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>659</v>
+        <v>409</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
       </c>
@@ -13844,13 +13862,13 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>657</v>
+        <v>413</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -13859,24 +13877,24 @@
         <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>661</v>
+        <v>79</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>662</v>
+        <v>415</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>663</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13887,7 +13905,7 @@
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>88</v>
@@ -13896,16 +13914,16 @@
         <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>89</v>
+        <v>663</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13956,13 +13974,13 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
@@ -13971,10 +13989,10 @@
         <v>99</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>667</v>
@@ -13983,12 +14001,12 @@
         <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13999,19 +14017,19 @@
         <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>669</v>
+        <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>670</v>
@@ -14019,9 +14037,7 @@
       <c r="L102" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>672</v>
-      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -14070,13 +14086,13 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>79</v>
@@ -14085,23 +14101,137 @@
         <v>99</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="AK102" t="s" s="2">
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AK103" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL102" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AL103" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN102">
+  <autoFilter ref="A1:AN103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14111,7 +14241,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -672,11 +672,17 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
 </t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>recorder</t>
@@ -5256,10 +5262,10 @@
         <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5345,7 +5351,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5367,10 +5373,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5456,11 +5462,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5482,16 +5488,16 @@
         <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5540,7 +5546,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5572,7 +5578,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5595,16 +5601,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5642,7 +5648,7 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5652,7 +5658,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5667,27 +5673,27 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5709,16 +5715,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5768,7 +5774,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5783,24 +5789,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5912,11 +5918,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5938,13 +5944,13 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6026,7 +6032,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6052,16 +6058,16 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6086,13 +6092,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6110,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6131,7 +6137,7 @@
         <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6142,7 +6148,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6168,16 +6174,16 @@
         <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6205,10 +6211,10 @@
         <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6226,7 +6232,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6244,10 +6250,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6258,7 +6264,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6284,29 +6290,29 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6342,7 +6348,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6360,10 +6366,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6374,7 +6380,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6400,13 +6406,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6420,7 +6426,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6456,7 +6462,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6474,10 +6480,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6488,7 +6494,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6511,13 +6517,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6568,7 +6574,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6586,10 +6592,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6600,7 +6606,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6623,16 +6629,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6682,7 +6688,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6700,10 +6706,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6714,7 +6720,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6737,16 +6743,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6796,7 +6802,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6811,13 +6817,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6828,7 +6834,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6854,13 +6860,13 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6910,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6925,13 +6931,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6942,11 +6948,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6965,13 +6971,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7022,7 +7028,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7037,13 +7043,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -7054,11 +7060,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -7077,13 +7083,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7134,7 +7140,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7149,13 +7155,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7166,11 +7172,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7189,19 +7195,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7250,7 +7256,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7265,13 +7271,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7282,7 +7288,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7308,13 +7314,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7340,13 +7346,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7364,7 +7370,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7379,24 +7385,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7422,13 +7428,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7454,13 +7460,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7478,7 +7484,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7493,16 +7499,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7510,7 +7516,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7536,16 +7542,16 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7574,7 +7580,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7592,7 +7598,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7610,13 +7616,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7624,7 +7630,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7736,11 +7742,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7762,13 +7768,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7850,7 +7856,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7873,19 +7879,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7934,7 +7940,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7952,10 +7958,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7966,7 +7972,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8078,11 +8084,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -8104,13 +8110,13 @@
         <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8192,7 +8198,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8218,23 +8224,23 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8276,7 +8282,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8294,10 +8300,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8308,7 +8314,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8334,13 +8340,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8390,7 +8396,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8408,10 +8414,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8422,7 +8428,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8448,21 +8454,21 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8504,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8522,10 +8528,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8536,7 +8542,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8562,14 +8568,14 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8618,7 +8624,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8636,10 +8642,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8650,7 +8656,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8673,19 +8679,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8734,7 +8740,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8752,10 +8758,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8766,7 +8772,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8792,16 +8798,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8850,7 +8856,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8868,10 +8874,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8882,7 +8888,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8908,10 +8914,10 @@
         <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8919,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8940,13 +8946,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8964,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8979,16 +8985,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8996,7 +9002,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9019,70 +9025,70 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9097,13 +9103,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9114,11 +9120,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9140,13 +9146,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9172,11 +9178,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9194,7 +9200,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9209,24 +9215,24 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9338,11 +9344,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9364,13 +9370,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9452,7 +9458,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9475,19 +9481,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9536,7 +9542,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9554,10 +9560,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9568,7 +9574,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9680,11 +9686,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9706,13 +9712,13 @@
         <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9794,7 +9800,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9820,16 +9826,16 @@
         <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9878,7 +9884,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9896,10 +9902,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9910,7 +9916,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9936,13 +9942,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9992,7 +9998,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10010,10 +10016,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -10024,7 +10030,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10050,21 +10056,21 @@
         <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -10106,7 +10112,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10124,10 +10130,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10138,7 +10144,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10164,14 +10170,14 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10220,7 +10226,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10238,10 +10244,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10252,7 +10258,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10275,19 +10281,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10336,7 +10342,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10354,10 +10360,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10368,7 +10374,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10394,16 +10400,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10452,7 +10458,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10470,10 +10476,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10484,11 +10490,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10510,13 +10516,13 @@
         <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10542,11 +10548,11 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10564,7 +10570,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10573,7 +10579,7 @@
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10582,21 +10588,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10619,17 +10625,17 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10678,7 +10684,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10696,10 +10702,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10710,7 +10716,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10822,11 +10828,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10848,13 +10854,13 @@
         <v>133</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10936,7 +10942,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10959,19 +10965,19 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11020,7 +11026,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11038,10 +11044,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11052,7 +11058,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11078,20 +11084,20 @@
         <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P76" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q76" t="s" s="2">
         <v>79</v>
@@ -11112,13 +11118,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11136,7 +11142,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11154,10 +11160,10 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11168,7 +11174,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11194,21 +11200,21 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>79</v>
@@ -11250,7 +11256,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11268,10 +11274,10 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11282,7 +11288,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11308,21 +11314,21 @@
         <v>101</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>79</v>
@@ -11364,7 +11370,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11373,7 +11379,7 @@
         <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>99</v>
@@ -11382,10 +11388,10 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11396,7 +11402,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11422,23 +11428,23 @@
         <v>107</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>79</v>
@@ -11480,7 +11486,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11498,10 +11504,10 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11512,7 +11518,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11535,13 +11541,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11592,7 +11598,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>87</v>
@@ -11607,28 +11613,28 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11647,13 +11653,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11704,7 +11710,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11719,28 +11725,28 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11759,13 +11765,13 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11816,7 +11822,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11831,24 +11837,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11871,13 +11877,13 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11907,10 +11913,10 @@
         <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11928,7 +11934,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11949,22 +11955,22 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11983,13 +11989,13 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12040,7 +12046,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12055,28 +12061,28 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12095,16 +12101,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12154,7 +12160,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12169,28 +12175,28 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12212,13 +12218,13 @@
         <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12247,10 +12253,10 @@
         <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12268,7 +12274,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12283,16 +12289,16 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12300,11 +12306,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12323,16 +12329,16 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12382,7 +12388,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12397,16 +12403,16 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12414,7 +12420,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12440,10 +12446,10 @@
         <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12473,10 +12479,10 @@
         <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12494,7 +12500,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12515,10 +12521,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12526,7 +12532,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12549,13 +12555,13 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12606,7 +12612,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12627,10 +12633,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12638,7 +12644,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12664,13 +12670,13 @@
         <v>163</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12699,10 +12705,10 @@
         <v>166</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12720,7 +12726,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12735,16 +12741,16 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12752,7 +12758,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12775,16 +12781,16 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12834,7 +12840,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12849,16 +12855,16 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12866,7 +12872,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12889,13 +12895,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12946,7 +12952,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12961,13 +12967,13 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12978,11 +12984,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13001,16 +13007,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13060,7 +13066,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13075,13 +13081,13 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13092,7 +13098,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13115,16 +13121,16 @@
         <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13174,7 +13180,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13192,10 +13198,10 @@
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13206,11 +13212,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13232,16 +13238,16 @@
         <v>163</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13269,10 +13275,10 @@
         <v>166</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13290,7 +13296,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13308,21 +13314,21 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13434,11 +13440,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13460,13 +13466,13 @@
         <v>133</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13548,10 +13554,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>79</v>
@@ -13573,13 +13579,13 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13662,7 +13668,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13685,19 +13691,19 @@
         <v>88</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13746,7 +13752,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13764,10 +13770,10 @@
         <v>79</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13778,7 +13784,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13804,16 +13810,16 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -13862,7 +13868,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13880,10 +13886,10 @@
         <v>79</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
@@ -13894,7 +13900,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13917,13 +13923,13 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13974,7 +13980,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13989,24 +13995,24 @@
         <v>99</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14032,10 +14038,10 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14086,7 +14092,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14104,10 +14110,10 @@
         <v>79</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>79</v>
@@ -14118,7 +14124,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14141,16 +14147,16 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14200,7 +14206,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14215,13 +14221,13 @@
         <v>99</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -574,11 +574,11 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -4335,7 +4335,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4905,7 +4905,7 @@
         <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-bladder-care.xlsx
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -636,17 +636,17 @@
     <t>Request must leave draft status before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -1843,11 +1843,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -2472,7 +2472,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>78</v>
@@ -12317,7 +12317,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
